--- a/documents/다머니_개발일정_v1.0.xlsx
+++ b/documents/다머니_개발일정_v1.0.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_GitProjects\Damoney_Git\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="12990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="12990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="개발 일정" sheetId="2" r:id="rId1"/>
+    <sheet name="속성 작업" sheetId="3" r:id="rId2"/>
+    <sheet name="AD_LIST" sheetId="4" r:id="rId3"/>
+    <sheet name="SHOP_LIST" sheetId="5" r:id="rId4"/>
+    <sheet name="보상 아이템 목록" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -19,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="256">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,14 +361,707 @@
   </si>
   <si>
     <t>▼ 다머니 어플리케이션 개발 일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▼ 다머니 계정 및 데이터 속성 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. {accountClass} : 계정이 갖는 속성 목록이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read&amp;write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client&amp;server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id 이다.
+바로 시작 시, 임의의 id를 생성하고, 이후 교체한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 이다.
+바로 시작 시, 임의의 password를 생성하고, 이후 교체한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 이다.
+바로 시작 시, 클라이언트에만 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 사용중인 캐릭터의 번호이다.
+0은 기본 제공 캐릭터이다.
+바로 시작 시, 클라이언트에만 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립금이다.
+바로 시작 시, 클라이언트에만 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 아이템 목록이다.
+바로 시작 시, 클라이언트에만 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. {itemClass} : 아이템이 갖는 속성 목록이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 이름이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 아이템이 등장할 최소 레벨이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>placed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 아이템의 아이템 지도에 사용되어있는지 여부이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 아이템의 가치 가격이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropProb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 아이템의 드롭 확률이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 아이콘 이미지이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템의 희귀도이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. {chraracterClass} : 캐릭터가 갖는 속성 목록이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 이름이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨이다.
+바로 시작 시, 클라이언트에만 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치이다.
+바로 시작 시, 클라이언트에만 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evolveLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 진화 단계이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropBonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 드롭 보너스로, 드롭 확률에 곱하여 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashBonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐시 보너스로, 캐시 받는 시점에 곱하여 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expBonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 보너스로, 받는 경험치에 곱하여 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 광고 목록 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 다머니에서 관리하는 광고의 데이터이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 1차로는 클라이언트에서 관리하고, 11월 이후 버전에서 서버에서 관리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바코드키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lstr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yymmdd - yymmdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrup Wallet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000101 - 991201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.skt.skaf.OA00026910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=net.daum.android.daum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ ONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=kr.co.ivlog.mobile.app.cjonecard.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캔디크러쉬사가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.king.candycrushsaga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠팡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.coupang.mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세븐나이츠 for Kakao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.cjenm.sknights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐앤탐스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>171101 - 180112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료 사이즈 업그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단품 주문 시, 세트로 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7번가피자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜라 1.25L 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타벅스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료 사이즈 업그리에드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네네치킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000원 할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sk텔레콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 1G 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 상품 목록 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 다머니에서 관리하는 상품 목록의 데이터이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발행처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투썸플레이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 아메리카노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BHC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후라이드치킨+콜라1.25L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도미노피자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포테이토M+콜라1.25L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gs25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙그레 메로나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리따움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리따움 3천원권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">즉시 경험치 +50 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀 드랍 확률 +5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 획득량 +5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐시 보상 +3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 뽑기 1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 뽑기 3회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진화의 돌 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E버스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회 이용권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5회 이용권 (5%할인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10회 이용권 (10%할인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500원 할인권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000원 할인권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 보상 아이템 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튤라 달팽이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황금 박쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알바트로스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은점모시 나비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬마 잠자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔수염하늘소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표범 나방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안경 원숭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사향 고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 늑대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피노키오 도마뱀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크림 고슴도치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하프 물범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 드래곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리폰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,8 +1129,87 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,8 +1252,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -523,13 +1310,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="double">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,66 +1434,166 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -638,6 +1606,789 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>580873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB4AC84-D361-46AD-B8CE-C7E24AF6C657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="10949098"/>
+          <a:ext cx="571500" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>768601</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>619126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA71B2E0-EBC2-4447-819F-F374A3266EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="10363201"/>
+          <a:ext cx="673351" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>884664</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E363EFB-F49C-4613-8FE3-80118286658D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="9772650"/>
+          <a:ext cx="760839" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>528834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A718C39-32A8-4AC3-A64D-6B4F5A4B0A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915025" y="4781550"/>
+          <a:ext cx="695325" cy="405009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>555101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D81F825-3675-4600-844F-931C55FC0B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6010274" y="2876549"/>
+          <a:ext cx="428625" cy="450327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>788220</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D10E13-C43A-4A75-8BAC-B413DBEB0A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="3486150"/>
+          <a:ext cx="607245" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>692647</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D1D0B0-DE83-43BA-BD95-17952CF4DB62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895976" y="2190750"/>
+          <a:ext cx="540246" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>67549</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>809469</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A35B1A-FC34-4CF6-A58F-87D8D5BE23CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5811124" y="1647825"/>
+          <a:ext cx="741920" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>567302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD7A195-6A9B-465D-9DBE-EBED7337E5CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="1019175"/>
+          <a:ext cx="609600" cy="433952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>706272</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>552451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93617D7A-4CA0-41AA-92A6-AA4EAE95BB00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019801" y="4105276"/>
+          <a:ext cx="430046" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>925769</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868C56CE-37EB-40AB-84B9-936BAD24946A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="9134475"/>
+          <a:ext cx="830519" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>798884</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056599D1-107C-4DB3-A515-C13B6C227B18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="7820025"/>
+          <a:ext cx="646484" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>64309</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>790417</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3505F8AB-E628-4EEF-8EA6-C0172DAEC73F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5807884" y="8534400"/>
+          <a:ext cx="726108" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>807108</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>584364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE44AFA-83CB-47E3-9330-D4EF01E52BBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5876925" y="7286625"/>
+          <a:ext cx="673758" cy="470064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>617687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AFD391-675F-41DB-B535-074EC1B6D8F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="6591300"/>
+          <a:ext cx="581025" cy="570062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>571937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E47CC3-E758-44D1-8E4F-D277C5B227B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048376" y="5334000"/>
+          <a:ext cx="457200" cy="524312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>602226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F465371-6EAE-419B-8A80-6D945E5B3CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972175" y="6057900"/>
+          <a:ext cx="619125" cy="459351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -895,7 +2646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -905,7 +2656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -919,107 +2670,107 @@
   <sheetData>
     <row r="1" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="J3" s="2" t="s">
         <v>80</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1036,7 +2787,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1053,7 +2804,7 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1070,7 +2821,7 @@
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1087,7 +2838,7 @@
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1104,7 +2855,7 @@
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1121,7 +2872,7 @@
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1138,7 +2889,7 @@
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1155,41 +2906,41 @@
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1206,7 +2957,7 @@
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1223,7 +2974,7 @@
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1240,7 +2991,7 @@
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1257,7 +3008,7 @@
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1274,7 +3025,7 @@
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -1291,7 +3042,7 @@
       <c r="L22" s="8"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1308,7 +3059,7 @@
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1325,41 +3076,41 @@
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1376,7 +3127,7 @@
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1393,7 +3144,7 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1410,7 +3161,7 @@
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1427,7 +3178,7 @@
       <c r="L30" s="8"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1444,7 +3195,7 @@
       <c r="L31" s="8"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1461,7 +3212,7 @@
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1478,7 +3229,7 @@
       <c r="L33" s="8"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1495,7 +3246,7 @@
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1512,7 +3263,7 @@
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1537,4 +3288,2150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="63.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="33" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="35">
+        <v>0</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="35">
+        <v>0</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="35">
+        <v>1</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="33" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="35">
+        <v>1</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" s="33" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="35">
+        <v>0</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="35">
+        <v>0</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="35">
+        <v>1</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="35">
+        <v>1</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="35">
+        <v>1</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="5.25" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="6.75" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="54" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="39"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="41"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47">
+        <v>0</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="47">
+        <v>1100</v>
+      </c>
+      <c r="H10" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="51"/>
+      <c r="C11" s="51">
+        <v>1</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="51">
+        <v>1500</v>
+      </c>
+      <c r="H11" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51">
+        <v>2</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="51">
+        <v>1100</v>
+      </c>
+      <c r="H12" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51">
+        <v>3</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="51">
+        <v>1100</v>
+      </c>
+      <c r="H13" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51">
+        <v>4</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="51">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51">
+        <v>5</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="51">
+        <v>1500</v>
+      </c>
+      <c r="H15" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="55"/>
+      <c r="C16" s="56">
+        <v>6</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="56">
+        <v>50</v>
+      </c>
+      <c r="H16" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="55"/>
+      <c r="C17" s="56">
+        <v>7</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="56">
+        <v>50</v>
+      </c>
+      <c r="H17" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="55"/>
+      <c r="C18" s="56">
+        <v>8</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="56">
+        <v>50</v>
+      </c>
+      <c r="H18" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="55"/>
+      <c r="C19" s="56">
+        <v>9</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="56">
+        <v>50</v>
+      </c>
+      <c r="H19" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="55"/>
+      <c r="C20" s="56">
+        <v>10</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="56">
+        <v>50</v>
+      </c>
+      <c r="H20" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="55"/>
+      <c r="C21" s="56">
+        <v>11</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="56">
+        <v>50</v>
+      </c>
+      <c r="H21" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="55"/>
+      <c r="C22" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" s="56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J12" r:id="rId1"/>
+    <hyperlink ref="J10" r:id="rId2"/>
+    <hyperlink ref="J11" r:id="rId3"/>
+    <hyperlink ref="J13" r:id="rId4"/>
+    <hyperlink ref="J14" r:id="rId5"/>
+    <hyperlink ref="J15" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="57.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="39"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="41"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47">
+        <v>0</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="47">
+        <v>4300</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="51"/>
+      <c r="C11" s="51">
+        <v>1</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="51">
+        <v>18700</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51">
+        <v>2</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="51">
+        <v>19000</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51">
+        <v>3</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="51">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51">
+        <v>4</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="51">
+        <v>3300</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51">
+        <v>5</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="51">
+        <v>290</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="55"/>
+      <c r="C16" s="56">
+        <v>6</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="56">
+        <v>700</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="55"/>
+      <c r="C17" s="56">
+        <v>7</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="56">
+        <v>700</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="55"/>
+      <c r="C18" s="56">
+        <v>8</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="56">
+        <v>700</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="55"/>
+      <c r="C19" s="56">
+        <v>9</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="56">
+        <v>990</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="55"/>
+      <c r="C20" s="56">
+        <v>10</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="56">
+        <v>2790</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="55"/>
+      <c r="C21" s="56">
+        <v>11</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="56">
+        <v>1900</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="55"/>
+      <c r="C22" s="56">
+        <v>12</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="56">
+        <v>2300</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="55"/>
+      <c r="C23" s="56">
+        <v>13</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H23" s="56">
+        <v>11000</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="55"/>
+      <c r="C24" s="56">
+        <v>14</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="56">
+        <v>20700</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="55"/>
+      <c r="C25" s="56">
+        <v>15</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="56">
+        <v>300</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="55"/>
+      <c r="C26" s="56">
+        <v>16</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="56">
+        <v>700</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="55"/>
+      <c r="C27" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" s="56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="62">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="62">
+        <v>1</v>
+      </c>
+      <c r="E5" s="62">
+        <v>500</v>
+      </c>
+      <c r="F5" s="62">
+        <v>15</v>
+      </c>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="63"/>
+    </row>
+    <row r="6" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="62">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="62">
+        <v>1</v>
+      </c>
+      <c r="E6" s="62">
+        <v>500</v>
+      </c>
+      <c r="F6" s="62">
+        <v>15</v>
+      </c>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="62">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="62">
+        <v>1</v>
+      </c>
+      <c r="E7" s="62">
+        <v>500</v>
+      </c>
+      <c r="F7" s="62">
+        <v>15</v>
+      </c>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="63"/>
+    </row>
+    <row r="8" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="62">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="62">
+        <v>1</v>
+      </c>
+      <c r="E8" s="62">
+        <v>500</v>
+      </c>
+      <c r="F8" s="62">
+        <v>15</v>
+      </c>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="63"/>
+    </row>
+    <row r="9" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="62">
+        <v>1004</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="62">
+        <v>1</v>
+      </c>
+      <c r="E9" s="62">
+        <v>500</v>
+      </c>
+      <c r="F9" s="62">
+        <v>15</v>
+      </c>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="63"/>
+    </row>
+    <row r="10" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="62">
+        <v>1005</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="62">
+        <v>2</v>
+      </c>
+      <c r="E10" s="62">
+        <v>500</v>
+      </c>
+      <c r="F10" s="62">
+        <v>15</v>
+      </c>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="63"/>
+    </row>
+    <row r="11" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="62">
+        <v>1006</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="62">
+        <v>2</v>
+      </c>
+      <c r="E11" s="62">
+        <v>500</v>
+      </c>
+      <c r="F11" s="62">
+        <v>15</v>
+      </c>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="63"/>
+    </row>
+    <row r="12" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="62">
+        <v>1007</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="62">
+        <v>2</v>
+      </c>
+      <c r="E12" s="62">
+        <v>500</v>
+      </c>
+      <c r="F12" s="62">
+        <v>15</v>
+      </c>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="63"/>
+    </row>
+    <row r="13" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="62">
+        <v>1008</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="62">
+        <v>2</v>
+      </c>
+      <c r="E13" s="62">
+        <v>500</v>
+      </c>
+      <c r="F13" s="62">
+        <v>15</v>
+      </c>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="63"/>
+    </row>
+    <row r="14" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="62">
+        <v>1009</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="62">
+        <v>3</v>
+      </c>
+      <c r="E14" s="62">
+        <v>500</v>
+      </c>
+      <c r="F14" s="62">
+        <v>15</v>
+      </c>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="63"/>
+    </row>
+    <row r="15" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="62">
+        <v>2001</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="62">
+        <v>1</v>
+      </c>
+      <c r="E15" s="62">
+        <v>3000</v>
+      </c>
+      <c r="F15" s="62">
+        <v>4</v>
+      </c>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="I15" s="63"/>
+    </row>
+    <row r="16" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="62">
+        <v>2002</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="62">
+        <v>2</v>
+      </c>
+      <c r="E16" s="62">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="62">
+        <v>4</v>
+      </c>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="I16" s="63"/>
+    </row>
+    <row r="17" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="62">
+        <v>2003</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="62">
+        <v>2</v>
+      </c>
+      <c r="E17" s="62">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="62">
+        <v>4</v>
+      </c>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="I17" s="63"/>
+    </row>
+    <row r="18" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="62">
+        <v>2004</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="62">
+        <v>3</v>
+      </c>
+      <c r="E18" s="62">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="62">
+        <v>4</v>
+      </c>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="I18" s="63"/>
+    </row>
+    <row r="19" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="62">
+        <v>3001</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="62">
+        <v>1</v>
+      </c>
+      <c r="E19" s="62">
+        <v>10000</v>
+      </c>
+      <c r="F19" s="62">
+        <v>1</v>
+      </c>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="62">
+        <v>3002</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="62">
+        <v>2</v>
+      </c>
+      <c r="E20" s="62">
+        <v>10000</v>
+      </c>
+      <c r="F20" s="62">
+        <v>1</v>
+      </c>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="I20" s="63"/>
+    </row>
+    <row r="21" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="62">
+        <v>3003</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="62">
+        <v>3</v>
+      </c>
+      <c r="E21" s="62">
+        <v>10000</v>
+      </c>
+      <c r="F21" s="62">
+        <v>1</v>
+      </c>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="I21" s="63"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>